--- a/data_updated/actual_nba_mvp_data.xlsx
+++ b/data_updated/actual_nba_mvp_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risha\Desktop\test1\NBA-MVP-Pred\data_updated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d-dog/NBA-MVP-Pred/data_updated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAA6096-9390-4175-BD23-6B3A0AF8FCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D924831-8488-D04C-AA91-FA62C0247871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22880" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1215,13 +1215,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A620" zoomScale="75" workbookViewId="0">
+      <selection activeCell="O664" sqref="O664"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -13253,7 +13253,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -17071,7 +17071,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
@@ -17984,7 +17984,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
@@ -18731,7 +18731,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
@@ -18897,7 +18897,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
@@ -18980,7 +18980,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -19063,7 +19063,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -19727,7 +19727,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
@@ -20142,7 +20142,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -20225,7 +20225,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
@@ -20391,7 +20391,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
@@ -20557,7 +20557,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -20806,7 +20806,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -20972,7 +20972,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
@@ -21055,7 +21055,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
@@ -21138,7 +21138,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
@@ -21221,7 +21221,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>243</v>
       </c>
@@ -21553,7 +21553,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>244</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>245</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>246</v>
       </c>
@@ -21802,7 +21802,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
@@ -21885,7 +21885,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>248</v>
       </c>
@@ -21968,7 +21968,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>249</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>250</v>
       </c>
@@ -22134,7 +22134,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>251</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>252</v>
       </c>
@@ -22300,7 +22300,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>253</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>254</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>255</v>
       </c>
@@ -22549,7 +22549,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>256</v>
       </c>
@@ -22632,7 +22632,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>257</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>258</v>
       </c>
@@ -22798,7 +22798,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>259</v>
       </c>
@@ -22881,7 +22881,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>260</v>
       </c>
@@ -22964,7 +22964,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>261</v>
       </c>
@@ -23047,7 +23047,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>262</v>
       </c>
@@ -23130,7 +23130,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>263</v>
       </c>
@@ -23213,7 +23213,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>264</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>265</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>266</v>
       </c>
@@ -23462,7 +23462,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>267</v>
       </c>
@@ -23545,7 +23545,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>268</v>
       </c>
@@ -23628,7 +23628,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>269</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>270</v>
       </c>
@@ -23794,7 +23794,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>271</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>272</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>273</v>
       </c>
@@ -24043,7 +24043,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>274</v>
       </c>
@@ -24126,7 +24126,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>275</v>
       </c>
@@ -24209,7 +24209,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>276</v>
       </c>
@@ -24292,7 +24292,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>277</v>
       </c>
@@ -24375,7 +24375,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>278</v>
       </c>
@@ -24458,7 +24458,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>279</v>
       </c>
@@ -24541,7 +24541,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>280</v>
       </c>
@@ -24624,7 +24624,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>281</v>
       </c>
@@ -24707,7 +24707,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>282</v>
       </c>
@@ -24790,7 +24790,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>283</v>
       </c>
@@ -24873,7 +24873,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>284</v>
       </c>
@@ -24956,7 +24956,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>285</v>
       </c>
@@ -25039,7 +25039,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>286</v>
       </c>
@@ -25122,7 +25122,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>287</v>
       </c>
@@ -25205,7 +25205,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>288</v>
       </c>
@@ -25288,7 +25288,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>289</v>
       </c>
@@ -25371,7 +25371,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>290</v>
       </c>
@@ -25454,7 +25454,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>291</v>
       </c>
@@ -25537,7 +25537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>292</v>
       </c>
@@ -25620,7 +25620,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>293</v>
       </c>
@@ -25703,7 +25703,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>294</v>
       </c>
@@ -25786,7 +25786,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>295</v>
       </c>
@@ -25869,7 +25869,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>296</v>
       </c>
@@ -25952,7 +25952,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>297</v>
       </c>
@@ -26035,7 +26035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>298</v>
       </c>
@@ -26118,7 +26118,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>299</v>
       </c>
@@ -26201,7 +26201,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>300</v>
       </c>
@@ -26284,7 +26284,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>301</v>
       </c>
@@ -26367,7 +26367,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>302</v>
       </c>
@@ -26450,7 +26450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>303</v>
       </c>
@@ -26533,7 +26533,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>304</v>
       </c>
@@ -26616,7 +26616,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>305</v>
       </c>
@@ -26699,7 +26699,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>306</v>
       </c>
@@ -26782,7 +26782,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>307</v>
       </c>
@@ -26865,7 +26865,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>308</v>
       </c>
@@ -26948,7 +26948,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>309</v>
       </c>
@@ -27031,7 +27031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>310</v>
       </c>
@@ -27114,7 +27114,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>311</v>
       </c>
@@ -27197,7 +27197,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>312</v>
       </c>
@@ -27280,7 +27280,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>313</v>
       </c>
@@ -27363,7 +27363,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>314</v>
       </c>
@@ -27446,7 +27446,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>315</v>
       </c>
@@ -27529,7 +27529,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>316</v>
       </c>
@@ -27612,7 +27612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>317</v>
       </c>
@@ -27695,7 +27695,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>318</v>
       </c>
@@ -27778,7 +27778,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>319</v>
       </c>
@@ -27861,7 +27861,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>320</v>
       </c>
@@ -27944,7 +27944,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>321</v>
       </c>
@@ -28027,7 +28027,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>322</v>
       </c>
@@ -28110,7 +28110,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>323</v>
       </c>
@@ -28193,7 +28193,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>324</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>325</v>
       </c>
@@ -28359,7 +28359,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>326</v>
       </c>
@@ -28442,7 +28442,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>327</v>
       </c>
@@ -28525,7 +28525,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>328</v>
       </c>
@@ -28608,7 +28608,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>329</v>
       </c>
@@ -28691,7 +28691,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>330</v>
       </c>
@@ -28774,7 +28774,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>331</v>
       </c>
@@ -28857,7 +28857,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>332</v>
       </c>
@@ -28940,7 +28940,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>333</v>
       </c>
@@ -29023,7 +29023,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>334</v>
       </c>
@@ -29106,7 +29106,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>335</v>
       </c>
@@ -29189,7 +29189,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>336</v>
       </c>
@@ -29272,7 +29272,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>337</v>
       </c>
@@ -29355,7 +29355,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>338</v>
       </c>
@@ -29438,7 +29438,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>339</v>
       </c>
@@ -29521,7 +29521,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>340</v>
       </c>
@@ -29604,7 +29604,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>341</v>
       </c>
@@ -29687,7 +29687,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>342</v>
       </c>
@@ -29770,7 +29770,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>343</v>
       </c>
@@ -29853,7 +29853,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>344</v>
       </c>
@@ -29936,7 +29936,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>345</v>
       </c>
@@ -30019,7 +30019,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>346</v>
       </c>
@@ -30102,7 +30102,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>347</v>
       </c>
@@ -30185,7 +30185,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>348</v>
       </c>
@@ -30268,7 +30268,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>349</v>
       </c>
@@ -30351,7 +30351,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>350</v>
       </c>
@@ -30434,7 +30434,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>351</v>
       </c>
@@ -30517,7 +30517,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>352</v>
       </c>
@@ -30600,7 +30600,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>353</v>
       </c>
@@ -30683,7 +30683,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>354</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>355</v>
       </c>
@@ -30849,7 +30849,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>356</v>
       </c>
@@ -30932,7 +30932,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>357</v>
       </c>
@@ -31015,7 +31015,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>358</v>
       </c>
@@ -31098,7 +31098,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>359</v>
       </c>
@@ -31181,7 +31181,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>360</v>
       </c>
@@ -31264,7 +31264,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>361</v>
       </c>
@@ -31347,7 +31347,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>362</v>
       </c>
@@ -31430,7 +31430,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>363</v>
       </c>
@@ -31513,7 +31513,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>364</v>
       </c>
@@ -31596,7 +31596,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>365</v>
       </c>
@@ -31679,7 +31679,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>366</v>
       </c>
@@ -31762,7 +31762,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="369" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>367</v>
       </c>
@@ -31845,7 +31845,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="370" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>368</v>
       </c>
@@ -31928,7 +31928,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="371" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>369</v>
       </c>
@@ -32011,7 +32011,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="372" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>370</v>
       </c>
@@ -32094,7 +32094,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="373" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>371</v>
       </c>
@@ -32177,7 +32177,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="374" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>372</v>
       </c>
@@ -32260,7 +32260,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="375" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>373</v>
       </c>
@@ -32343,7 +32343,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="376" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>374</v>
       </c>
@@ -32426,7 +32426,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="377" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>375</v>
       </c>
@@ -32509,7 +32509,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="378" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>376</v>
       </c>
@@ -32592,7 +32592,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="379" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>377</v>
       </c>
@@ -32675,7 +32675,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="380" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>378</v>
       </c>
@@ -32758,7 +32758,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="381" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>379</v>
       </c>
@@ -32841,7 +32841,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="382" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>380</v>
       </c>
@@ -32924,7 +32924,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="383" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>381</v>
       </c>
@@ -33007,7 +33007,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="384" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>382</v>
       </c>
@@ -33090,7 +33090,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="385" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>383</v>
       </c>
@@ -33173,7 +33173,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="386" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>384</v>
       </c>
@@ -33256,7 +33256,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="387" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>385</v>
       </c>
@@ -33339,7 +33339,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="388" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>386</v>
       </c>
@@ -33422,7 +33422,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="389" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>387</v>
       </c>
@@ -33505,7 +33505,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="390" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>388</v>
       </c>
@@ -33588,7 +33588,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="391" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>389</v>
       </c>
@@ -33671,7 +33671,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="392" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>390</v>
       </c>
@@ -33754,7 +33754,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="393" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>391</v>
       </c>
@@ -33837,7 +33837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="394" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>392</v>
       </c>
@@ -33920,7 +33920,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="395" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>393</v>
       </c>
@@ -34003,7 +34003,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="396" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>394</v>
       </c>
@@ -34086,7 +34086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="397" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>395</v>
       </c>
@@ -34169,7 +34169,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="398" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>396</v>
       </c>
@@ -34252,7 +34252,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="399" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>397</v>
       </c>
@@ -34335,7 +34335,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="400" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>398</v>
       </c>
@@ -34418,7 +34418,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="401" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>399</v>
       </c>
@@ -34501,7 +34501,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="402" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>400</v>
       </c>
@@ -34584,7 +34584,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="403" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>401</v>
       </c>
@@ -34667,7 +34667,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="404" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>402</v>
       </c>
@@ -34750,7 +34750,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="405" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>403</v>
       </c>
@@ -34833,7 +34833,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="406" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>404</v>
       </c>
@@ -34916,7 +34916,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="407" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>405</v>
       </c>
@@ -34999,7 +34999,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="408" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>406</v>
       </c>
@@ -35082,7 +35082,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="409" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>407</v>
       </c>
@@ -35165,7 +35165,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="410" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>408</v>
       </c>
@@ -35248,7 +35248,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="411" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>409</v>
       </c>
@@ -35331,7 +35331,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="412" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>410</v>
       </c>
@@ -35414,7 +35414,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="413" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>411</v>
       </c>
@@ -35497,7 +35497,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="414" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>412</v>
       </c>
@@ -35580,7 +35580,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="415" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>413</v>
       </c>
@@ -35663,7 +35663,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="416" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>414</v>
       </c>
@@ -35746,7 +35746,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>415</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>416</v>
       </c>
@@ -35912,7 +35912,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>417</v>
       </c>
@@ -35995,7 +35995,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>418</v>
       </c>
@@ -36078,7 +36078,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>419</v>
       </c>
@@ -36161,7 +36161,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>420</v>
       </c>
@@ -36244,7 +36244,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>421</v>
       </c>
@@ -36327,7 +36327,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>422</v>
       </c>
@@ -36410,7 +36410,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>423</v>
       </c>
@@ -36493,7 +36493,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>424</v>
       </c>
@@ -36576,7 +36576,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>425</v>
       </c>
@@ -36659,7 +36659,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>426</v>
       </c>
@@ -36742,7 +36742,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>427</v>
       </c>
@@ -36825,7 +36825,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>428</v>
       </c>
@@ -36908,7 +36908,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>429</v>
       </c>
@@ -36991,7 +36991,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>430</v>
       </c>
@@ -37074,7 +37074,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="433" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>431</v>
       </c>
@@ -37157,7 +37157,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>432</v>
       </c>
@@ -37240,7 +37240,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="435" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>433</v>
       </c>
@@ -37323,7 +37323,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>434</v>
       </c>
@@ -37406,7 +37406,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="437" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>435</v>
       </c>
@@ -37489,7 +37489,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="438" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>436</v>
       </c>
@@ -37572,7 +37572,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="439" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>437</v>
       </c>
@@ -37655,7 +37655,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="440" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>438</v>
       </c>
@@ -37738,7 +37738,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="441" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>439</v>
       </c>
@@ -37821,7 +37821,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>440</v>
       </c>
@@ -37904,7 +37904,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="443" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>441</v>
       </c>
@@ -37987,7 +37987,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>442</v>
       </c>
@@ -38070,7 +38070,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="445" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>443</v>
       </c>
@@ -38153,7 +38153,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="446" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>444</v>
       </c>
@@ -38236,7 +38236,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="447" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>445</v>
       </c>
@@ -38319,7 +38319,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>446</v>
       </c>
@@ -38402,7 +38402,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="449" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>447</v>
       </c>
@@ -38485,7 +38485,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="450" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>448</v>
       </c>
@@ -38568,7 +38568,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="451" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>449</v>
       </c>
@@ -38651,7 +38651,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="452" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>450</v>
       </c>
@@ -38734,7 +38734,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="453" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>451</v>
       </c>
@@ -38817,7 +38817,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="454" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>452</v>
       </c>
@@ -38900,7 +38900,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="455" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>453</v>
       </c>
@@ -38983,7 +38983,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="456" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>454</v>
       </c>
@@ -39066,7 +39066,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="457" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>455</v>
       </c>
@@ -39149,7 +39149,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="458" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>456</v>
       </c>
@@ -39232,7 +39232,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="459" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>457</v>
       </c>
@@ -39315,7 +39315,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="460" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>458</v>
       </c>
@@ -39398,7 +39398,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="461" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>459</v>
       </c>
@@ -39481,7 +39481,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="462" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>460</v>
       </c>
@@ -39564,7 +39564,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="463" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>461</v>
       </c>
@@ -39647,7 +39647,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="464" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>462</v>
       </c>
@@ -39730,7 +39730,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="465" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>463</v>
       </c>
@@ -39813,7 +39813,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="466" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>464</v>
       </c>
@@ -39896,7 +39896,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="467" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>465</v>
       </c>
@@ -39979,7 +39979,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="468" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>466</v>
       </c>
@@ -40062,7 +40062,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="469" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>467</v>
       </c>
@@ -40145,7 +40145,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="470" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>468</v>
       </c>
@@ -40228,7 +40228,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="471" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>469</v>
       </c>
@@ -40311,7 +40311,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="472" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>470</v>
       </c>
@@ -40394,7 +40394,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="473" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>471</v>
       </c>
@@ -40477,7 +40477,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="474" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>472</v>
       </c>
@@ -40560,7 +40560,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="475" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>473</v>
       </c>
@@ -40643,7 +40643,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="476" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>474</v>
       </c>
@@ -40726,7 +40726,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="477" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>475</v>
       </c>
@@ -40809,7 +40809,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="478" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>476</v>
       </c>
@@ -40892,7 +40892,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="479" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>477</v>
       </c>
@@ -40975,7 +40975,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="480" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>478</v>
       </c>
@@ -41058,7 +41058,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="481" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>479</v>
       </c>
@@ -41141,7 +41141,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="482" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>480</v>
       </c>
@@ -41224,7 +41224,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="483" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>481</v>
       </c>
@@ -41307,7 +41307,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="484" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>482</v>
       </c>
@@ -41390,7 +41390,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="485" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>483</v>
       </c>
@@ -41473,7 +41473,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="486" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>484</v>
       </c>
@@ -41556,7 +41556,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="487" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>485</v>
       </c>
@@ -41639,7 +41639,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="488" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>486</v>
       </c>
@@ -41722,7 +41722,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="489" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>487</v>
       </c>
@@ -41805,7 +41805,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="490" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>488</v>
       </c>
@@ -41888,7 +41888,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="491" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>489</v>
       </c>
@@ -41971,7 +41971,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="492" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>490</v>
       </c>
@@ -42054,7 +42054,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="493" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>491</v>
       </c>
@@ -42137,7 +42137,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="494" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>492</v>
       </c>
@@ -42220,7 +42220,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="495" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>493</v>
       </c>
@@ -42303,7 +42303,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="496" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>494</v>
       </c>
@@ -42386,7 +42386,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="497" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>495</v>
       </c>
@@ -42469,7 +42469,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="498" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>496</v>
       </c>
@@ -42552,7 +42552,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="499" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>497</v>
       </c>
@@ -42635,7 +42635,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="500" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>498</v>
       </c>
@@ -42718,7 +42718,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="501" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>499</v>
       </c>
@@ -42801,7 +42801,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="502" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>500</v>
       </c>
@@ -42884,7 +42884,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="503" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>501</v>
       </c>
@@ -42967,7 +42967,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="504" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>502</v>
       </c>
@@ -43050,7 +43050,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="505" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>503</v>
       </c>
@@ -43133,7 +43133,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="506" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>504</v>
       </c>
@@ -43216,7 +43216,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="507" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>505</v>
       </c>
@@ -43299,7 +43299,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="508" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>506</v>
       </c>
@@ -43382,7 +43382,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="509" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>507</v>
       </c>
@@ -43465,7 +43465,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="510" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>508</v>
       </c>
@@ -43548,7 +43548,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="511" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>509</v>
       </c>
@@ -43631,7 +43631,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="512" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>510</v>
       </c>
@@ -43714,7 +43714,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="513" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>511</v>
       </c>
@@ -43797,7 +43797,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="514" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>512</v>
       </c>
@@ -43880,7 +43880,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="515" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>513</v>
       </c>
@@ -43963,7 +43963,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="516" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>514</v>
       </c>
@@ -44046,7 +44046,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="517" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>515</v>
       </c>
@@ -44129,7 +44129,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="518" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>516</v>
       </c>
@@ -44212,7 +44212,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="519" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>517</v>
       </c>
@@ -44295,7 +44295,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="520" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>518</v>
       </c>
@@ -44378,7 +44378,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="521" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>519</v>
       </c>
@@ -44461,7 +44461,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="522" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>520</v>
       </c>
@@ -44544,7 +44544,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="523" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>521</v>
       </c>
@@ -44627,7 +44627,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="524" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>522</v>
       </c>
@@ -44710,7 +44710,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="525" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>523</v>
       </c>
@@ -44793,7 +44793,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="526" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>524</v>
       </c>
@@ -44876,7 +44876,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="527" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>525</v>
       </c>
@@ -44959,7 +44959,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="528" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>526</v>
       </c>
@@ -45042,7 +45042,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="529" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>527</v>
       </c>
@@ -45125,7 +45125,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="530" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>528</v>
       </c>
@@ -45208,7 +45208,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="531" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>529</v>
       </c>
@@ -45291,7 +45291,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="532" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>530</v>
       </c>
@@ -45374,7 +45374,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="533" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>531</v>
       </c>
@@ -45457,7 +45457,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="534" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>532</v>
       </c>
@@ -45540,7 +45540,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="535" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>533</v>
       </c>
@@ -45623,7 +45623,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="536" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>534</v>
       </c>
@@ -45706,7 +45706,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="537" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>535</v>
       </c>
@@ -45789,7 +45789,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="538" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>536</v>
       </c>
@@ -45872,7 +45872,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="539" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>537</v>
       </c>
@@ -45955,7 +45955,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="540" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>538</v>
       </c>
@@ -46038,7 +46038,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="541" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>539</v>
       </c>
@@ -46121,7 +46121,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="542" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>540</v>
       </c>
@@ -46204,7 +46204,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="543" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>541</v>
       </c>
@@ -46287,7 +46287,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="544" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>542</v>
       </c>
@@ -46370,7 +46370,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="545" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>543</v>
       </c>
@@ -46453,7 +46453,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="546" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>544</v>
       </c>
@@ -46536,7 +46536,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="547" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>545</v>
       </c>
@@ -46619,7 +46619,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="548" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>546</v>
       </c>
@@ -46702,7 +46702,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="549" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>547</v>
       </c>
@@ -46785,7 +46785,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="550" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>548</v>
       </c>
@@ -46868,7 +46868,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="551" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>549</v>
       </c>
@@ -46951,7 +46951,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="552" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>550</v>
       </c>
@@ -47034,7 +47034,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="553" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>551</v>
       </c>
@@ -47117,7 +47117,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="554" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>552</v>
       </c>
@@ -47200,7 +47200,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="555" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>553</v>
       </c>
@@ -47283,7 +47283,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="556" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>554</v>
       </c>
@@ -47366,7 +47366,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="557" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>555</v>
       </c>
@@ -47449,7 +47449,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="558" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>556</v>
       </c>
@@ -47532,7 +47532,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="559" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>557</v>
       </c>
@@ -47615,7 +47615,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="560" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>558</v>
       </c>
@@ -47698,7 +47698,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="561" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>559</v>
       </c>
@@ -47781,7 +47781,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="562" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>560</v>
       </c>
@@ -47864,7 +47864,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="563" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>561</v>
       </c>
@@ -47947,7 +47947,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="564" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>562</v>
       </c>
@@ -48030,7 +48030,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="565" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>563</v>
       </c>
@@ -48113,7 +48113,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="566" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>564</v>
       </c>
@@ -48196,7 +48196,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="567" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>565</v>
       </c>
@@ -48279,7 +48279,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="568" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>566</v>
       </c>
@@ -48362,7 +48362,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="569" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>567</v>
       </c>
@@ -48445,7 +48445,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="570" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>568</v>
       </c>
@@ -48528,7 +48528,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="571" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>569</v>
       </c>
@@ -48611,7 +48611,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="572" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>570</v>
       </c>
@@ -48694,7 +48694,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="573" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>571</v>
       </c>
@@ -48777,7 +48777,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="574" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>572</v>
       </c>
@@ -48860,7 +48860,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="575" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>573</v>
       </c>
@@ -48943,7 +48943,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="576" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>574</v>
       </c>
@@ -49026,7 +49026,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="577" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>575</v>
       </c>
@@ -49109,7 +49109,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="578" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>576</v>
       </c>
@@ -49192,7 +49192,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="579" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>577</v>
       </c>
@@ -49275,7 +49275,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="580" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>578</v>
       </c>
@@ -49358,7 +49358,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="581" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>579</v>
       </c>
@@ -49441,7 +49441,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="582" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>580</v>
       </c>
@@ -49524,7 +49524,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="583" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>581</v>
       </c>
@@ -49607,7 +49607,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="584" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>582</v>
       </c>
@@ -49690,7 +49690,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="585" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>583</v>
       </c>
@@ -49773,7 +49773,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="586" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>584</v>
       </c>
@@ -49856,7 +49856,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="587" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>585</v>
       </c>
@@ -49939,7 +49939,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="588" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>586</v>
       </c>
@@ -50022,7 +50022,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="589" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>587</v>
       </c>
@@ -50105,7 +50105,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="590" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>588</v>
       </c>
@@ -50188,7 +50188,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="591" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>589</v>
       </c>
@@ -50271,7 +50271,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="592" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>590</v>
       </c>
@@ -50354,7 +50354,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="593" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>591</v>
       </c>
@@ -50437,7 +50437,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="594" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>592</v>
       </c>
@@ -50520,7 +50520,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="595" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>593</v>
       </c>
@@ -50603,7 +50603,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="596" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>594</v>
       </c>
@@ -50686,7 +50686,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="597" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>595</v>
       </c>
@@ -50769,7 +50769,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="598" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>596</v>
       </c>
@@ -50852,7 +50852,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="599" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>597</v>
       </c>
@@ -50935,7 +50935,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="600" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>598</v>
       </c>
@@ -51018,7 +51018,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="601" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>599</v>
       </c>
@@ -51101,7 +51101,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="602" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>600</v>
       </c>
@@ -51184,7 +51184,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="603" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>601</v>
       </c>
@@ -51267,7 +51267,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="604" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>602</v>
       </c>
@@ -51350,7 +51350,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="605" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>603</v>
       </c>
@@ -51433,7 +51433,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="606" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>604</v>
       </c>
@@ -51516,7 +51516,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="607" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>605</v>
       </c>
@@ -51599,7 +51599,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="608" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>606</v>
       </c>
@@ -51682,7 +51682,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="609" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>607</v>
       </c>
@@ -51765,7 +51765,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="610" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>608</v>
       </c>
@@ -51848,7 +51848,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="611" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>609</v>
       </c>
@@ -51931,7 +51931,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="612" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>610</v>
       </c>
@@ -52014,7 +52014,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="613" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>611</v>
       </c>
@@ -52097,7 +52097,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="614" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>612</v>
       </c>
@@ -52180,7 +52180,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="615" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>613</v>
       </c>
@@ -52263,7 +52263,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="616" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>614</v>
       </c>
@@ -52346,7 +52346,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="617" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>615</v>
       </c>
@@ -52429,7 +52429,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="618" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>616</v>
       </c>
@@ -52512,7 +52512,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="619" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>617</v>
       </c>
@@ -52595,7 +52595,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="620" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>618</v>
       </c>
@@ -52678,7 +52678,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="621" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>619</v>
       </c>
@@ -52761,7 +52761,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="622" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>620</v>
       </c>
@@ -52844,7 +52844,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="623" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>621</v>
       </c>
@@ -52927,7 +52927,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="624" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>622</v>
       </c>
@@ -53010,7 +53010,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="625" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>623</v>
       </c>
@@ -53093,7 +53093,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="626" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>624</v>
       </c>
@@ -53176,7 +53176,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="627" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>625</v>
       </c>
@@ -53259,7 +53259,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="628" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>626</v>
       </c>
@@ -53342,7 +53342,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="629" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>627</v>
       </c>
@@ -53425,7 +53425,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="630" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>628</v>
       </c>
@@ -53508,7 +53508,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="631" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>629</v>
       </c>
@@ -53591,7 +53591,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="632" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>630</v>
       </c>
@@ -53674,7 +53674,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="633" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>631</v>
       </c>
@@ -53757,7 +53757,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="634" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>632</v>
       </c>
@@ -53840,7 +53840,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="635" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>633</v>
       </c>
@@ -53923,7 +53923,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="636" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>634</v>
       </c>
@@ -54006,7 +54006,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="637" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>635</v>
       </c>
@@ -54089,7 +54089,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="638" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>636</v>
       </c>
@@ -54172,7 +54172,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="639" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>637</v>
       </c>
@@ -54197,6 +54197,9 @@
       <c r="H639">
         <v>10.8</v>
       </c>
+      <c r="I639">
+        <v>0.73199999999999998</v>
+      </c>
       <c r="J639" s="2">
         <v>78</v>
       </c>
@@ -54252,7 +54255,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="640" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>638</v>
       </c>
@@ -54277,6 +54280,9 @@
       <c r="H640">
         <v>11.7</v>
       </c>
+      <c r="I640">
+        <v>0.64600000000000002</v>
+      </c>
       <c r="J640" s="3">
         <v>23</v>
       </c>
@@ -54332,7 +54338,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="641" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>639</v>
       </c>
@@ -54357,6 +54363,9 @@
       <c r="H641">
         <v>5.5</v>
       </c>
+      <c r="I641">
+        <v>0.59799999999999998</v>
+      </c>
       <c r="J641" s="2">
         <v>0</v>
       </c>
@@ -54412,7 +54421,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="642" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>640</v>
       </c>
@@ -54437,6 +54446,9 @@
       <c r="H642">
         <v>9.5</v>
       </c>
+      <c r="I642">
+        <v>0.65900000000000003</v>
+      </c>
       <c r="J642" s="3">
         <v>0</v>
       </c>
@@ -54492,7 +54504,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="643" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>641</v>
       </c>
@@ -54517,6 +54529,9 @@
       <c r="H643">
         <v>6.3</v>
       </c>
+      <c r="I643">
+        <v>0.69499999999999995</v>
+      </c>
       <c r="J643" s="2">
         <v>0</v>
       </c>
@@ -54572,7 +54587,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="644" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>642</v>
       </c>
@@ -54597,6 +54612,9 @@
       <c r="H644">
         <v>5.5</v>
       </c>
+      <c r="I644">
+        <v>0.64600000000000002</v>
+      </c>
       <c r="J644" s="3">
         <v>0</v>
       </c>
@@ -54652,7 +54670,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="645" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>643</v>
       </c>
@@ -54677,6 +54695,9 @@
       <c r="H645">
         <v>4.0999999999999996</v>
       </c>
+      <c r="I645">
+        <v>0.622</v>
+      </c>
       <c r="J645" s="2">
         <v>0</v>
       </c>
@@ -54732,7 +54753,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="646" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>644</v>
       </c>
@@ -54757,6 +54778,9 @@
       <c r="H646">
         <v>4.3</v>
       </c>
+      <c r="I646">
+        <v>0.69499999999999995</v>
+      </c>
       <c r="J646" s="3">
         <v>0</v>
       </c>
@@ -54812,7 +54836,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="647" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>645</v>
       </c>
@@ -54837,6 +54861,9 @@
       <c r="H647">
         <v>5</v>
       </c>
+      <c r="I647">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="J647" s="2">
         <v>0</v>
       </c>
@@ -54892,7 +54919,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="648" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>646</v>
       </c>
@@ -54917,6 +54944,9 @@
       <c r="H648">
         <v>6.5</v>
       </c>
+      <c r="I648">
+        <v>0.59799999999999998</v>
+      </c>
       <c r="J648" s="3">
         <v>0</v>
       </c>
@@ -54972,7 +55002,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="649" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>647</v>
       </c>
@@ -54996,6 +55026,9 @@
       </c>
       <c r="H649">
         <v>7</v>
+      </c>
+      <c r="I649">
+        <v>0.61</v>
       </c>
       <c r="J649" s="2">
         <v>0</v>
@@ -55050,7 +55083,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="650" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>648</v>
       </c>
@@ -55075,6 +55108,9 @@
       <c r="H650">
         <v>8.1</v>
       </c>
+      <c r="I650">
+        <v>0.45100000000000001</v>
+      </c>
       <c r="J650" s="3">
         <v>0</v>
       </c>
@@ -55130,7 +55166,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="651" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>649</v>
       </c>
@@ -55155,6 +55191,9 @@
       <c r="H651">
         <v>11.5</v>
       </c>
+      <c r="I651">
+        <v>0.76700000000000002</v>
+      </c>
       <c r="J651" s="2">
         <v>85</v>
       </c>
@@ -55210,7 +55249,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="652" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>650</v>
       </c>
@@ -55235,6 +55274,9 @@
       <c r="H652">
         <v>8.4</v>
       </c>
+      <c r="I652">
+        <v>0.73199999999999998</v>
+      </c>
       <c r="J652" s="3">
         <v>16</v>
       </c>
@@ -55290,7 +55332,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="653" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>651</v>
       </c>
@@ -55315,6 +55357,9 @@
       <c r="H653">
         <v>9.6</v>
       </c>
+      <c r="I653">
+        <v>0.61099999999999999</v>
+      </c>
       <c r="J653" s="2">
         <v>0</v>
       </c>
@@ -55370,7 +55415,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="654" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>652</v>
       </c>
@@ -55395,6 +55440,9 @@
       <c r="H654">
         <v>8.4</v>
       </c>
+      <c r="I654">
+        <v>0.57299999999999995</v>
+      </c>
       <c r="J654" s="3">
         <v>0</v>
       </c>
@@ -55450,7 +55498,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="655" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>653</v>
       </c>
@@ -55475,6 +55523,9 @@
       <c r="H655">
         <v>8.9</v>
       </c>
+      <c r="I655">
+        <v>0.68100000000000005</v>
+      </c>
       <c r="J655" s="2">
         <v>0</v>
       </c>
@@ -55530,7 +55581,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="656" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>654</v>
       </c>
@@ -55555,6 +55606,9 @@
       <c r="H656">
         <v>8</v>
       </c>
+      <c r="I656">
+        <v>0.73199999999999998</v>
+      </c>
       <c r="J656" s="3">
         <v>0</v>
       </c>
@@ -55610,7 +55664,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="657" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>655</v>
       </c>
@@ -55635,6 +55689,9 @@
       <c r="H657">
         <v>4.4000000000000004</v>
       </c>
+      <c r="I657">
+        <v>0.61099999999999999</v>
+      </c>
       <c r="J657" s="2">
         <v>0</v>
       </c>
@@ -55690,7 +55747,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="658" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>656</v>
       </c>
@@ -55715,6 +55772,9 @@
       <c r="H658">
         <v>7.5</v>
       </c>
+      <c r="I658">
+        <v>0.47299999999999998</v>
+      </c>
       <c r="J658" s="3">
         <v>0</v>
       </c>
@@ -55770,7 +55830,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="659" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>657</v>
       </c>
@@ -55795,6 +55855,9 @@
       <c r="H659">
         <v>7.4</v>
       </c>
+      <c r="I659">
+        <v>0.63</v>
+      </c>
       <c r="J659" s="2">
         <v>0</v>
       </c>
@@ -55850,7 +55913,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="660" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>658</v>
       </c>
@@ -55875,6 +55938,9 @@
       <c r="H660">
         <v>1.8</v>
       </c>
+      <c r="I660">
+        <v>0.73599999999999999</v>
+      </c>
       <c r="J660" s="3">
         <v>0</v>
       </c>
@@ -55930,7 +55996,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="661" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>659</v>
       </c>
@@ -55955,6 +56021,9 @@
       <c r="H661">
         <v>5.4</v>
       </c>
+      <c r="I661">
+        <v>0.60299999999999998</v>
+      </c>
       <c r="J661" s="2">
         <v>0</v>
       </c>
@@ -56010,7 +56079,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="662" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>660</v>
       </c>
@@ -56034,6 +56103,9 @@
       </c>
       <c r="H662">
         <v>4</v>
+      </c>
+      <c r="I662">
+        <v>0.66700000000000004</v>
       </c>
       <c r="J662" s="3">
         <v>0</v>
